--- a/biology/Zoologie/Aristotelia_frankeniae/Aristotelia_frankeniae.xlsx
+++ b/biology/Zoologie/Aristotelia_frankeniae/Aristotelia_frankeniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aristotelia frankeniae est une espèce de lépidoptères de la famille des Gelechiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille fusiforme, de couleur gris verdâtre, mesure 6 mm. Elle se transforme dans un léger cocon ovoïde, opaque, de soie blanche. La chrysalide est brun cannelle[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille fusiforme, de couleur gris verdâtre, mesure 6 mm. Elle se transforme dans un léger cocon ovoïde, opaque, de soie blanche. La chrysalide est brun cannelle
 L'envergure de l'imago est de 9 mm. Les ailes antérieures sont orange vif-ocre, avec un triangle brun cuivré atteignant un tiers de la costa. Les ailes postérieures sont d'un gris pâle légèrement brillant. 
 Des imagos furent observés en vol de la mi-mai à la fin juin.
 </t>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aristotelia frankeniae est présente en Espagne[2], en Corse[3] et en Afrique du Nord[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aristotelia frankeniae est présente en Espagne, en Corse et en Afrique du Nord.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille consomme les plantes des espèces Frankenia boissieri, Frankenia laevis, Frankenia pulverulenta[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille consomme les plantes des espèces Frankenia boissieri, Frankenia laevis, Frankenia pulverulenta.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aristotelia frankeniae Walsingham, 1898[5],[6].
-Les types (chenilles) ont été découverts sur Frankenia pulverulenta dans l'archipel des Sanguinaires en Corse[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aristotelia frankeniae Walsingham, 1898,.
+Les types (chenilles) ont été découverts sur Frankenia pulverulenta dans l'archipel des Sanguinaires en Corse.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, frankeniae, fait référence au genre botanique Frankenia auquel appartiennent ses espèces hôtes[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, frankeniae, fait référence au genre botanique Frankenia auquel appartiennent ses espèces hôtes.
 </t>
         </is>
       </c>
@@ -669,7 +691,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Lord Walsingham, « New Corsican Micro-Lepidoptera », Entomologist's Monthly Magazine, Oxford, 2e série, vol. 9,‎ juin 1898, p. 131-134 (ISSN 0013-8908, lire en ligne, consulté le 15 septembre 2023).</t>
         </is>
